--- a/outputs_HGR/o__Actinomycetales_train.xlsx
+++ b/outputs_HGR/o__Actinomycetales_train.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,25 +568,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999954974167</v>
+        <v>0.903028931669578</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.641066284941177e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>0.09697106832976554</v>
       </c>
       <c r="E2" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.641066284941155e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.641066284941155e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>4.502494465578884e-09</v>
+        <v>1.641066284941154e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999954974167</v>
+        <v>0.903028931669578</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -597,29 +597,29 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces16.fasta</t>
+          <t>label_Actinomyces13.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999968909</v>
+        <v>0.77333219375019</v>
       </c>
       <c r="C3" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>1.870008343552302e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>0.226667806249062</v>
       </c>
       <c r="E3" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>1.870008343552301e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>1.8700083435523e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>3.020310350412634e-12</v>
+        <v>1.870008343552301e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999968909</v>
+        <v>0.77333219375019</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -630,29 +630,29 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces18.fasta</t>
+          <t>label_Actinomyces16.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8556703845308806</v>
+        <v>0.9389953458433006</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>3.094162830674467e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1443296154690307</v>
+        <v>0.06100465403293307</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>3.094162830674464e-11</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>3.094162830674467e-11</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>3.094162830674464e-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8556703845308806</v>
+        <v>0.9389953458433006</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -663,29 +663,29 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces23.fasta</t>
+          <t>label_Actinomyces4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5218625537601849</v>
+        <v>0.889666622578635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4781374112919201</v>
+        <v>0.1103333774209283</v>
       </c>
       <c r="E5" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>1.09184085246948e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>3.494750634355206e-08</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5218625537601849</v>
+        <v>0.889666622578635</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,29 +696,29 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces27.fasta</t>
+          <t>label_Actinomyces5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999999517513548</v>
+        <v>0.8931542677749836</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>8.822896048810954e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>0.1068457322246632</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>8.822896048810946e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>8.822896048810946e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>4.824863631682037e-07</v>
+        <v>8.822896048810953e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999517513548</v>
+        <v>0.8931542677749836</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -729,29 +729,29 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces28.fasta</t>
+          <t>label_Actinomyces10.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999996475808415</v>
+        <v>0.903028931669578</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>1.641066284941177e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>0.09697106832976554</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>1.641066284941155e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>1.641066284941155e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>3.524190697196802e-07</v>
+        <v>1.641066284941154e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999996475808415</v>
+        <v>0.903028931669578</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -762,29 +762,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces29.fasta</t>
+          <t>label_Actinomyces13.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999997338418003</v>
+        <v>0.77333219375019</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>1.870008343552302e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>0.226667806249062</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>1.870008343552301e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>1.8700083435523e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>2.661581108086444e-07</v>
+        <v>1.870008343552301e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999997338418003</v>
+        <v>0.77333219375019</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -795,29 +795,29 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces30.fasta</t>
+          <t>label_Actinomyces16.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999952850476779</v>
+        <v>0.9389953458433006</v>
       </c>
       <c r="C9" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>3.094162830674467e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>0.06100465403293307</v>
       </c>
       <c r="E9" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>3.094162830674464e-11</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>3.094162830674467e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>4.714952233191587e-06</v>
+        <v>3.094162830674464e-11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999952850476779</v>
+        <v>0.9389953458433006</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -828,29 +828,29 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces36.fasta</t>
+          <t>label_Actinomyces4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999906427809421</v>
+        <v>0.889666622578635</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>0.1103333774209283</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>1.09184085246948e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>9.357218969164966e-06</v>
+        <v>1.091840852469479e-13</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9999906427809421</v>
+        <v>0.889666622578635</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -861,29 +861,29 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces7.fasta</t>
+          <t>label_Actinomyces5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999995654994452</v>
+        <v>0.8931542677749836</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>8.822896048810954e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>0.1068457322246632</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>8.822896048810946e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>8.822896048810946e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>4.345004659812745e-07</v>
+        <v>8.822896048810953e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9999995654994452</v>
+        <v>0.8931542677749836</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -894,29 +894,29 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces10.fasta</t>
+          <t>label_Actinomyces14.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999954974167</v>
+        <v>0.9069980479342612</v>
       </c>
       <c r="C12" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.258615511134421e-11</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>0.09300195201539398</v>
       </c>
       <c r="E12" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.258615511134418e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>2.22044604758399e-14</v>
+        <v>1.258615511134418e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>4.502494465578884e-09</v>
+        <v>1.258615511134418e-11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9999999954974167</v>
+        <v>0.9069980479342612</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -927,29 +927,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces16.fasta</t>
+          <t>label_Actinomyces24.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999968909</v>
+        <v>0.847673631841773</v>
       </c>
       <c r="C13" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>7.238963860453001e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>0.1523263681579373</v>
       </c>
       <c r="E13" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>7.238963860452993e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>2.22044604924913e-14</v>
+        <v>7.238963860452993e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>3.020310350412634e-12</v>
+        <v>7.238963860452993e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9999999999968909</v>
+        <v>0.847673631841773</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -960,29 +960,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces18.fasta</t>
+          <t>label_Actinomyces32.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8556703845308806</v>
+        <v>0.8747496116070568</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>1.560337612262711e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1443296154690307</v>
+        <v>0.1252503259794387</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>1.560337612262711e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>1.560337612262711e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.220037355578878e-14</v>
+        <v>1.560337612262709e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8556703845308806</v>
+        <v>0.8747496116070568</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -993,62 +993,62 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces23.fasta</t>
+          <t>label_Actinomyces0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5218625537601849</v>
+        <v>1.059297009120644e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>1.059297009120644e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4781374112919201</v>
+        <v>0.3719042441176332</v>
       </c>
       <c r="E15" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>1.059297009120645e-13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.29592737977959e-13</v>
+        <v>0.4284252423432954</v>
       </c>
       <c r="G15" t="n">
-        <v>3.494750634355206e-08</v>
+        <v>0.1996705135387536</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5218625537601849</v>
+        <v>0.4284252423432954</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces27.fasta</t>
+          <t>label_Actinomyces11.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999999517513548</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220445870694676e-14</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4.824863631682037e-07</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.999999517513548</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1059,29 +1059,29 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces28.fasta</t>
+          <t>label_Actinomyces17.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999996475808415</v>
+        <v>0.8682156652518851</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>3.454472665655157e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>0.1317843347342968</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>3.454472665655155e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>2.220445918829126e-14</v>
+        <v>3.454472665655155e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>3.524190697196802e-07</v>
+        <v>3.45447266565516e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999996475808415</v>
+        <v>0.8682156652518851</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1092,29 +1092,29 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces29.fasta</t>
+          <t>label_Actinomyces18.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999997338418003</v>
+        <v>0.8209482353881664</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>5.97070428613993e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>0.1790517646094453</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>5.970704286139925e-13</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220445950752036e-14</v>
+        <v>5.970704286139925e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>2.661581108086444e-07</v>
+        <v>5.970704286139927e-13</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999997338418003</v>
+        <v>0.8209482353881664</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1125,29 +1125,29 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces30.fasta</t>
+          <t>label_Actinomyces12.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999952850476779</v>
+        <v>0.844647762664024</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>1.622468629821169e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>0.1553360126495951</v>
       </c>
       <c r="E19" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>2.755582964127439e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2204443043914e-14</v>
+        <v>2.755582964127439e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>4.714952233191587e-06</v>
+        <v>2.755582964127439e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9999952850476779</v>
+        <v>0.844647762664024</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1158,29 +1158,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces36.fasta</t>
+          <t>label_Actinomyces29.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999906427809421</v>
+        <v>0.8759259177519884</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>1.764054969913848e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>0.1240564416982452</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>2.240866004117165e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220442586478107e-14</v>
+        <v>2.240866004117165e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>9.357218969164966e-06</v>
+        <v>2.240866004117165e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9999906427809421</v>
+        <v>0.8759259177519884</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1191,1054 +1191,31 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Actinomyces7.fasta</t>
+          <t>label_Actinomyces33.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999995654994452</v>
+        <v>0.9573525164399572</v>
       </c>
       <c r="C21" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>0.02067405422562496</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>0.02197342927667468</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>1.924773569147757e-11</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220445888452978e-14</v>
+        <v>1.924773569147758e-11</v>
       </c>
       <c r="G21" t="n">
-        <v>4.345004659812745e-07</v>
+        <v>1.924773569147754e-11</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9999995654994452</v>
+        <v>0.9573525164399572</v>
       </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces14.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9455004601931257</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.05449953980678549</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9455004601931257</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces17.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces2.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces21.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces24.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces25.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces38.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.9455004601931257</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05449953980678549</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.219943494213273e-14</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.9455004601931257</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces40.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces9.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces1.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.9333081842940495</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.000550305988167e-06</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.06668781350472636</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.000550305988169e-06</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.000550305988169e-06</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.000550305988166e-06</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.9333081842940495</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces11.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.9842324888127479</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.003153433060393556</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.003153778945677948</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.003153433060393558</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.003153433060393567</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.003153433060393557</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9842324888127479</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces13.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.7480493081854622</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.144592997200277e-12</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2519506918019593</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.144592997200278e-12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.144592997200278e-12</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.144592997200279e-12</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.7480493081854622</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces15.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.7077822479209349</v>
-      </c>
-      <c r="C34" t="n">
-        <v>9.668456750438096e-10</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.2922177482116823</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.668456750438099e-10</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9.668456750438099e-10</v>
-      </c>
-      <c r="G34" t="n">
-        <v>9.668456750438105e-10</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.7077822479209349</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces3.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.6563409651940815</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.220284929527428e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3436590348058298</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.220284929527428e-14</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.220284929527428e-14</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.220284929527428e-14</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.6563409651940815</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces34.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.8906953816965608</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02186092366068787</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.02186092366068788</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.02186092366068785</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.02186092366068787</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.02186092366068784</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.8906953816965608</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces35.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9728542208793701</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.005429155824125996</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.005429155824126013</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.005429155824125991</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.005429155824125991</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.005429155824125979</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.9728542208793701</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces37.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9866207635092117</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.002675847298157662</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.002675847298157683</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.00267584729815767</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.00267584729815767</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.002675847298157665</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.9866207635092117</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces4.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9948672539335887</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.994791656852713e-11</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.005132745866619833</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.994791656852773e-11</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4.994791656852781e-11</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.994791656852726e-11</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9948672539335887</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces19.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces20.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces31.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces33.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces39.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces5.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces6.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces8.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces0.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9973609308508224</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.219876953231846e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.002639069149088655</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.219876953231846e-14</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2.219876953231846e-14</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.219876953231846e-14</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.9973609308508224</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces12.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.9756981333603603</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.219903669625434e-14</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.02430186663955088</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.219903669625434e-14</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.219903669625434e-14</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.219903669625434e-14</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.9756981333603603</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces22.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.991241416090298</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.21988417285795e-14</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.008758583909613302</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.21988417285795e-14</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.21988417285795e-14</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.21988417285795e-14</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.991241416090298</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces26.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.9881117689295137</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.219888390397111e-14</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.01188823107039746</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.219888390397111e-14</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.219888390397111e-14</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.219888390397111e-14</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9881117689295137</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_Actinomyces32.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9999990765056428</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.220445707489634e-14</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9.234942682787013e-07</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.220445707489634e-14</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2.220445707489634e-14</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.220445707489634e-14</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.9999990765056428</v>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>f__Actinomycetaceae</t>
         </is>
@@ -2255,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,29 +1290,29 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium9.fasta</t>
+          <t>label_Brevibacterium0.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1196417482280858</v>
+        <v>0.008644189746148556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2973649401034569</v>
+        <v>0.9849607871858292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1196417482280857</v>
+        <v>0.006395023067955628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119641748228086</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1196417482280858</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2240680669841997</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2973649401034569</v>
+        <v>0.9849607871858292</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2346,29 +1323,29 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium9.fasta</t>
+          <t>label_Brevibacterium4.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1196417482280858</v>
+        <v>0.001882319336744154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2973649401034569</v>
+        <v>0.9962489069865621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1196417482280857</v>
+        <v>0.001868773676627221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119641748228086</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1196417482280858</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2240680669841997</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2973649401034569</v>
+        <v>0.9962489069865621</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2383,25 +1360,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.008644189746148556</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9849607871858292</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.006395023067955628</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.220485581466959e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9849607871858292</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2412,29 +1389,29 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium5.fasta</t>
+          <t>label_Brevibacterium4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.001882319336744154</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9962489069865621</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.001868773676627221</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.220118173683162e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9962489069865621</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2445,29 +1422,29 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium7.fasta</t>
+          <t>label_Brevibacterium5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.001100644057754752</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9988900653882279</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>9.290553950714156e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.220036621021931e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.220036621021931e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.220036621021931e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9988900653882279</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2482,25 +1459,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003515706993672829</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9964842833456423</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9.66061817284845e-09</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.219878204813473e-14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.219878204813473e-14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.219878204813473e-14</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9964842833456423</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2511,29 +1488,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium4.fasta</t>
+          <t>label_Brevibacterium3.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.20609463397193e-05</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999479390535715</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220426785755342e-14</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220426785755342e-14</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220426785755342e-14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220426785755342e-14</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999479390535715</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2544,29 +1521,29 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium6.fasta</t>
+          <t>label_Brevibacterium7.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006429285346851571</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993570714652235</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2.496448811442135e-14</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220208564128192e-14</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220208564128192e-14</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220208564128192e-14</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9993570714652235</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2577,29 +1554,29 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Brevibacterium3.fasta</t>
+          <t>label_Brevibacterium6.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01872630828954142</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9808083308043913</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0004653609060007079</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.219463889140284e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.219463889140284e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.219463889140284e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.9808083308043913</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2614,25 +1591,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.007625092501328003</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9920626087115908</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.0003122987870145184</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.219856220852338e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.219856220852338e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.219856220852338e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9920626087115908</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2643,31 +1620,64 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
+          <t>label_Brevibacterium9.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3753502674174297</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4080224435009359</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2166272890726022</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.01087248320801e-12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.01087248320801e-12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.010872483208009e-12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4080224435009359</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Brevibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
           <t>label_Brevibacterium1.fasta</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.219875339438578e-14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9983442022279827</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.001655797771928591</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.219875339438578e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.219875339438578e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.219875339438578e-14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.9983442022279827</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="B13" t="n">
+        <v>0.03458203228063783</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8820760728762019</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.08334189484295412</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.865343675049061e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.865343675049061e-14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.865343675049069e-14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8820760728762019</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>f__Brevibacteriaceae</t>
         </is>
@@ -2684,7 +1694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,29 +1752,29 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium18.fasta</t>
+          <t>label_Corynebacterium4.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>0.03527957047845396</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999996798694886</v>
+        <v>0.9647204295214573</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.201304227380742e-07</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999996798694886</v>
+        <v>0.9647204295214573</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2775,29 +1785,29 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium23.fasta</t>
+          <t>label_Corynebacterium4.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>0.03527957047845396</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999932514098</v>
+        <v>0.9647204295214573</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>6.748501414422727e-09</v>
+        <v>2.219919071744713e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999932514098</v>
+        <v>0.9647204295214573</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2808,29 +1818,29 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium29.fasta</t>
+          <t>label_Corynebacterium15.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>0.1519896756049397</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>2.220066182160323e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999998836668375</v>
+        <v>0.8480103243949715</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>2.220066182160323e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>2.220066182160323e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.163330737314896e-07</v>
+        <v>2.220066182160323e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999998836668375</v>
+        <v>0.8480103243949715</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2841,29 +1851,29 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium9.fasta</t>
+          <t>label_Corynebacterium2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>0.1099924057807825</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>2.220011707807592e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999745484597</v>
+        <v>0.8900075942191288</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>2.220011707807592e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>2.220011707807592e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54514515411754e-08</v>
+        <v>2.220011707807592e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999745484597</v>
+        <v>0.8900075942191288</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2874,29 +1884,29 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium18.fasta</t>
+          <t>label_Corynebacterium20.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>0.05768250876880768</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219952225768917e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999996798694886</v>
+        <v>0.9423174912311034</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219952225768917e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220445930778303e-14</v>
+        <v>2.219952225768917e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>3.201304227380742e-07</v>
+        <v>2.219952225768917e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999996798694886</v>
+        <v>0.9423174912311034</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2907,29 +1917,29 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium23.fasta</t>
+          <t>label_Corynebacterium11.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999932514098</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220446046752801e-14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.748501414422727e-09</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999999932514098</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2940,29 +1950,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium29.fasta</t>
+          <t>label_Corynebacterium14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999998836668375</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220446006198377e-14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.163330737314896e-07</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999998836668375</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2973,40 +1983,40 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium9.fasta</t>
+          <t>label_Corynebacterium17.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999745484597</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>0.156957017579975</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220446039831319e-14</v>
+        <v>0.156957017579975</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54514515411754e-08</v>
+        <v>0.2152149121001249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999999745484597</v>
+        <v>0.2152149121001249</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae</t>
+          <t>f__Streptomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium1.fasta</t>
+          <t>label_Corynebacterium28.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3039,29 +2049,29 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium10.fasta</t>
+          <t>label_Corynebacterium13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.09425857518241934</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.219991202751068e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.905741424817492</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.219991202751068e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.219991202751068e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.219991202751068e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.905741424817492</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3072,62 +2082,62 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium21.fasta</t>
+          <t>label_Corynebacterium23.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.5283096993872013</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.935608624373462e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.4716903006126815</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.935608624373462e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.935608624373462e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.935608624373462e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.5283096993872013</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium28.fasta</t>
+          <t>label_Corynebacterium27.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.07076468051386642</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.219971268531339e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9292353194860449</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.219971268531339e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.219971268531339e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.219971268531339e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9292353194860449</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3142,25 +2152,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.05083166558262247</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.219945672933052e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9491683344172888</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.219945672933052e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.219945672933052e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.219945672933052e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.9491683344172888</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3171,29 +2181,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium14.fasta</t>
+          <t>label_Corynebacterium8.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002039865258124126</v>
+        <v>0.0548221551478595</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219875189149439e-14</v>
+        <v>2.219935099948948e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9979601347417871</v>
+        <v>0.9451778448520516</v>
       </c>
       <c r="E15" t="n">
-        <v>2.219875189149439e-14</v>
+        <v>2.219935099948948e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>2.219875189149439e-14</v>
+        <v>2.219935099948948e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.219875189149439e-14</v>
+        <v>2.219935099948948e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9979601347417871</v>
+        <v>0.9451778448520516</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3204,29 +2214,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium16.fasta</t>
+          <t>label_Corynebacterium19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0004287335356346605</v>
+        <v>0.02431293282958738</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220287584391651e-14</v>
+        <v>1.76222948117979e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995712664642765</v>
+        <v>0.9756694448755343</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220287584391651e-14</v>
+        <v>2.219766577405675e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220287584391651e-14</v>
+        <v>2.219766577405675e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.220287584391651e-14</v>
+        <v>2.219766577405675e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9995712664642765</v>
+        <v>0.9756694448755343</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3237,658 +2247,31 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Corynebacterium19.fasta</t>
+          <t>label_Corynebacterium29.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005239526118860173</v>
+        <v>0.01003365707430892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219880653350806e-14</v>
+        <v>1.439313055708353e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.994760473881051</v>
+        <v>0.9899649036125688</v>
       </c>
       <c r="E17" t="n">
-        <v>2.219880653350806e-14</v>
+        <v>2.219886424735909e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>2.219880653350806e-14</v>
+        <v>2.219886424735909e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.219880653350806e-14</v>
+        <v>2.219886424735909e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.994760473881051</v>
+        <v>0.9899649036125688</v>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium3.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.001730983830845803</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.219875210633129e-14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9982690161690654</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.219875210633129e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.219875210633129e-14</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.219875210633129e-14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9982690161690654</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium4.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0002695283566703273</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.220346382138038e-14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9997304716432408</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.220346382138038e-14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.220346382138038e-14</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.220346382138038e-14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9997304716432408</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium8.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.001251930247208079</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.219984434188274e-14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9987480697527032</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.219984434188274e-14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.219984434188274e-14</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.219984434188274e-14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9987480697527032</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium11.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium13.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium15.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium2.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium24.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium25.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium26.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2.219941422508116e-14</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.219941422508116e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9407444179454948</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.05925558205441635</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.219941422508116e-14</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.219941422508116e-14</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9407444179454948</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium0.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0005657870668444393</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0005657870668444393</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9971710646657777</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0005657870668444491</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0005657870668444587</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0005657870668444488</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.9971710646657777</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium12.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.001168165372669205</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.001168165372669205</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9941591731366539</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.00116816537266922</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.001168165372669238</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.001168165372669221</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.9941591731366539</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium17.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.0007300242024113838</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0007300242024113838</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.996349878987943</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0007300242024113924</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.000730024202411401</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0007300242024113901</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.996349878987943</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium20.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.002045907874963278</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.002045907874963278</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9897704606251835</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.002045907874963296</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.002045907874963315</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.002045907874963288</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.9897704606251835</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium22.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.001497394665213648</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.001497394665213648</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9925130266739316</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.001497394665213666</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.001497394665213688</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.001497394665213664</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9925130266739316</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium27.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.001389545093423834</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.001389545093423834</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9930522745328808</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.001389545093423846</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.001389545093423871</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.001389545093423848</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.9930522745328808</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium30.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.001341829550912827</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.001341829550912827</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9932908522454359</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.001341829550912849</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.001341829550912866</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.001341829550912845</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.9932908522454359</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium5.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.000741372242276349</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.000741372242276349</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9962931387886182</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0007413722422763626</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0007413722422763704</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0007413722422763597</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9962931387886182</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>f__Corynebacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_Corynebacterium7.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0007148159512260486</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0007148159512260486</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9964259202438697</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0007148159512260581</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0007148159512260717</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0007148159512260558</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.9964259202438697</v>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>f__Corynebacteriaceae</t>
         </is>
@@ -3967,25 +2350,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1112356813083716</v>
+        <v>0.2725892369663135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1112356813083716</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1112356813083715</v>
+        <v>0.2716016370660831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3272839457125863</v>
+        <v>0.4558091259669265</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1112356813083716</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2277733290539275</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3272839457125863</v>
+        <v>0.4558091259669265</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4000,25 +2383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>0.02136103930404088</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>0.02277392221075138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999816004603</v>
+        <v>0.955865038485141</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1.839945092365457e-08</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999816004603</v>
+        <v>0.955865038485141</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4033,25 +2416,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1112356813083716</v>
+        <v>0.2725892369663135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1112356813083716</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1112356813083715</v>
+        <v>0.2716016370660831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3272839457125863</v>
+        <v>0.4558091259669265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1112356813083716</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2277733290539275</v>
+        <v>2.255669682877804e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3272839457125863</v>
+        <v>0.4558091259669265</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4066,25 +2449,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>0.02136103930404088</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>0.02277392221075138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999816004603</v>
+        <v>0.955865038485141</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220446042441083e-14</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>1.839945092365457e-08</v>
+        <v>2.22185629358979e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999816004603</v>
+        <v>0.955865038485141</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4095,29 +2478,29 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Nesterenkonia0.fasta</t>
+          <t>label_Nesterenkonia1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.04923029710569859</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.218383490926102e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001297287884213715</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9494724150100212</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.218383490926102e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.218383490926102e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9494724150100212</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4128,29 +2511,29 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Nesterenkonia4.fasta</t>
+          <t>label_Nesterenkonia6.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.03131955718076348</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.221748086859389e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0173976913611761</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9512827514579938</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.221748086859389e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.221748086859389e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.9512827514579938</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4161,29 +2544,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Rothia4.fasta</t>
+          <t>label_Rothia1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.3499460848912804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.196240700310601e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.2259486711674015</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.4241052439403593</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.19624070031059e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.19624070031059e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.4241052439403593</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4194,29 +2577,29 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Rothia5.fasta</t>
+          <t>label_Rothia3.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3948663161639858</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.217795889482948e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.1677391273852624</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.4373945564470986</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.217795889482949e-12</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.217795889482947e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.4373945564470986</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4231,25 +2614,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002009739916972344</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219876223971258e-14</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.528912635070821e-06</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979877311703259</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2.219876223971258e-14</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.219876223971258e-14</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9979877311703259</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4260,29 +2643,29 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Rothia0.fasta</t>
+          <t>label_Nesterenkonia4.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003228114258396164</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219877383976122e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.935919943506631e-09</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9967718778056173</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2.219877383976122e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.219877383976122e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9967718778056173</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4293,7 +2676,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Nesterenkonia1.fasta</t>
+          <t>label_Rothia0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4326,29 +2709,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Nesterenkonia5.fasta</t>
+          <t>label_Rothia4.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.04202366385557491</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.219916079901147e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.00812879335443569</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.9498475427899229</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.219916079901147e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.219916079901147e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9498475427899229</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4359,29 +2742,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Rothia3.fasta</t>
+          <t>label_Nesterenkonia0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02550119923578192</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.642631911832776e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.009590694892618493</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.9649054632396433</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.220617358228903e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.220617358228903e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.9649054632396433</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4392,29 +2775,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Nesterenkonia6.fasta</t>
+          <t>label_Nesterenkonia5.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1416678170043956</v>
+        <v>0.02288666709522968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1416678170043956</v>
+        <v>3.879071238362149e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1879189412607204</v>
+        <v>0.01871566025830501</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2454097907216974</v>
+        <v>0.9583937935751825</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1416678170043956</v>
+        <v>2.221592572936074e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1416678170043956</v>
+        <v>2.221592572936074e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2454097907216974</v>
+        <v>0.9583937935751825</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4429,25 +2812,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1429883469665335</v>
+        <v>0.03221936044737294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1429883469665335</v>
+        <v>4.637141867215206e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1814414316736583</v>
+        <v>0.03314271778990458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2466051804602069</v>
+        <v>0.9346332846208107</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1429883469665338</v>
+        <v>2.22389311096419e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1429883469665338</v>
+        <v>2.22389311096419e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2466051804602069</v>
+        <v>0.9346332846208107</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4458,29 +2841,29 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Rothia1.fasta</t>
+          <t>label_Rothia5.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1446010511422806</v>
+        <v>0.03084512247780154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1446010511422806</v>
+        <v>5.370891499877759e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1735317044339896</v>
+        <v>0.007282116933426668</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2480640909968882</v>
+        <v>0.9618722234995775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1446010511422805</v>
+        <v>2.220166123395251e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1446010511422805</v>
+        <v>2.220166123395251e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2480640909968882</v>
+        <v>0.9618722234995775</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4499,7 +2882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,29 +2940,29 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium4.fasta</t>
+          <t>label_Propionibacterium1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>0.006071597340472315</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>0.004169641721084443</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999999987838562</v>
+        <v>0.9897587609383767</v>
       </c>
       <c r="G2" t="n">
-        <v>1.216134907950506e-08</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.999999987838562</v>
+        <v>0.9897587609383767</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4590,29 +2973,29 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium3.fasta</t>
+          <t>label_Propionimicrobium1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>0.0471733064808835</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>0.0001414611653295719</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999997772481347</v>
+        <v>0.9526852323537204</v>
       </c>
       <c r="G3" t="n">
-        <v>2.227517764737178e-07</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999997772481347</v>
+        <v>0.9526852323537204</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4623,29 +3006,29 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium4.fasta</t>
+          <t>label_Propionimicrobium5.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>0.0803662533948698</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>0.0003322615333001839</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999997563865496</v>
+        <v>0.9193014850717633</v>
       </c>
       <c r="G4" t="n">
-        <v>2.436133615078618e-07</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999997563865496</v>
+        <v>0.9193014850717633</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4656,29 +3039,29 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium6.fasta</t>
+          <t>label_Propionibacterium1.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>0.006071597340472315</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>0.004169641721084443</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999982612076069</v>
+        <v>0.9897587609383767</v>
       </c>
       <c r="G5" t="n">
-        <v>1.738792304276318e-06</v>
+        <v>2.220354330054379e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999982612076069</v>
+        <v>0.9897587609383767</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4689,29 +3072,29 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium4.fasta</t>
+          <t>label_Propionimicrobium1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>0.0471733064808835</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>0.0001414611653295719</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220446044749645e-14</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999999987838562</v>
+        <v>0.9526852323537204</v>
       </c>
       <c r="G6" t="n">
-        <v>1.216134907950506e-08</v>
+        <v>2.218979929890871e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999987838562</v>
+        <v>0.9526852323537204</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4722,29 +3105,29 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium3.fasta</t>
+          <t>label_Propionimicrobium5.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>0.0803662533948698</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>0.0003322615333001839</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445966815584e-14</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999997772481347</v>
+        <v>0.9193014850717633</v>
       </c>
       <c r="G7" t="n">
-        <v>2.227517764737178e-07</v>
+        <v>2.218052228352384e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999997772481347</v>
+        <v>0.9193014850717633</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4755,29 +3138,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium4.fasta</t>
+          <t>label_Propionibacterium3.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>0.04350857041754363</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>2.218811189290471e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>0.0003034317250262984</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220445959095257e-14</v>
+        <v>2.218811189290471e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999997563865496</v>
+        <v>0.9561879978573635</v>
       </c>
       <c r="G8" t="n">
-        <v>2.436133615078618e-07</v>
+        <v>2.218811189290471e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999997563865496</v>
+        <v>0.9561879978573635</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4788,29 +3171,29 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium6.fasta</t>
+          <t>label_Propionibacterium4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>0.04485290166072083</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>2.221778882354908e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>0.01638886513866279</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220445405771094e-14</v>
+        <v>2.221778882354908e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999982612076069</v>
+        <v>0.9387582332005496</v>
       </c>
       <c r="G9" t="n">
-        <v>1.738792304276318e-06</v>
+        <v>2.221778882354908e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999982612076069</v>
+        <v>0.9387582332005496</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4821,29 +3204,29 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium0.fasta</t>
+          <t>label_Propionibacterium5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1794457515885811</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.220065984354628e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.828546999275475e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.220065984354628e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.8205542301258824</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.220065984354628e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.8205542301258824</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4854,7 +3237,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium2.fasta</t>
+          <t>label_Propionimicrobium2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4887,29 +3270,29 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium1.fasta</t>
+          <t>label_Propionibacterium2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002349377702078484</v>
+        <v>0.02245948291134365</v>
       </c>
       <c r="C12" t="n">
-        <v>2.21987607756192e-14</v>
+        <v>2.219436825248891e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>5.855312069373096e-10</v>
+        <v>0.002137276306316374</v>
       </c>
       <c r="E12" t="n">
-        <v>2.21987607756192e-14</v>
+        <v>2.219436825248891e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9976506217123238</v>
+        <v>0.9754032407822734</v>
       </c>
       <c r="G12" t="n">
-        <v>2.21987607756192e-14</v>
+        <v>2.219436825248891e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9976506217123238</v>
+        <v>0.9754032407822734</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4920,29 +3303,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium5.fasta</t>
+          <t>label_Propionimicrobium0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07993177976799949</v>
+        <v>0.03670370933086688</v>
       </c>
       <c r="C13" t="n">
-        <v>2.21998621094649e-14</v>
+        <v>2.219258383111457e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.21998621094649e-14</v>
+        <v>0.0001024397475535767</v>
       </c>
       <c r="E13" t="n">
-        <v>2.21998621094649e-14</v>
+        <v>2.219258383111457e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9200682202319117</v>
+        <v>0.963193850921513</v>
       </c>
       <c r="G13" t="n">
-        <v>2.21998621094649e-14</v>
+        <v>2.219258383111457e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9200682202319117</v>
+        <v>0.963193850921513</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4953,29 +3336,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Propionibacterium3.fasta</t>
+          <t>label_Propionimicrobium4.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.0444642929399176</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.218608083198046e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.00264046015754249</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.218608083198046e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9528952469024734</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.218608083198046e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.9528952469024734</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4986,29 +3369,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium2.fasta</t>
+          <t>label_Propionimicrobium8.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.03811564411342508</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.218743465489672e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.001581729282144823</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.218743465489672e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9603026266043635</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.218743465489672e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.9603026266043635</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5019,29 +3402,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium8.fasta</t>
+          <t>label_Propionibacterium0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.2080575819183783</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0001216453112712081</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.3260420334144283</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.401052271232197e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.4657787393540421</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.401052271232173e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.4657787393540421</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5052,29 +3435,29 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium0.fasta</t>
+          <t>label_Propionimicrobium3.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.220236913293654e-14</v>
+        <v>0.01652848274715255</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220236913293654e-14</v>
+        <v>6.976751137357256e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0005660534307756784</v>
+        <v>0.008980239302497231</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220236913293654e-14</v>
+        <v>2.220714343789162e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9994339465691355</v>
+        <v>0.9744905802751921</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220236913293654e-14</v>
+        <v>2.220714343789162e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9994339465691355</v>
+        <v>0.9744905802751921</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5085,29 +3468,29 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium1.fasta</t>
+          <t>label_Propionimicrobium6.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.218857832104577e-14</v>
+        <v>0.06387938421716409</v>
       </c>
       <c r="C18" t="n">
-        <v>2.218857832104577e-14</v>
+        <v>6.588514055775682e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001005550633212931</v>
+        <v>0.02536730044331032</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06110518100124011</v>
+        <v>2.224637027905389e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9387942639353719</v>
+        <v>0.9107526564880755</v>
       </c>
       <c r="G18" t="n">
-        <v>2.218857832104577e-14</v>
+        <v>2.224637027905389e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9387942639353719</v>
+        <v>0.9107526564880755</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5118,64 +3501,31 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Propionimicrobium5.fasta</t>
+          <t>label_Propionimicrobium7.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.218381666490879e-14</v>
+        <v>0.01812229462519942</v>
       </c>
       <c r="C19" t="n">
-        <v>2.218381666490879e-14</v>
+        <v>3.927491448386372e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002798439482858348</v>
+        <v>0.000120548681931268</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06206304620031267</v>
+        <v>2.219613828111801e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.937657109851335</v>
+        <v>0.9817567639436801</v>
       </c>
       <c r="G19" t="n">
-        <v>2.218381666490879e-14</v>
+        <v>2.219613828111801e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.937657109851335</v>
+        <v>0.9817567639436801</v>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_Propionimicrobium7.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.219875778706177e-14</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.219875778706177e-14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.002377567341979906</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.219875778706177e-14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9976224326579313</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.219875778706177e-14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9976224326579313</v>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>f__Propionibacteriaceae</t>
         </is>
@@ -5254,25 +3604,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03018079279073039</v>
+        <v>0.02360445302336359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03018079279073039</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03018079279073039</v>
+        <v>0.02065088817059672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03018079279073038</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03018079279073036</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8490960360463481</v>
+        <v>0.955744658805973</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8490960360463481</v>
+        <v>0.955744658805973</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5287,25 +3637,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>0.006187986173750233</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1948537068095217</v>
+        <v>0.05194344260974344</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8051462931903896</v>
+        <v>0.9418685712164399</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8051462931903896</v>
+        <v>0.9418685712164399</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5320,25 +3670,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03018079279073039</v>
+        <v>0.02360445302336359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03018079279073039</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03018079279073039</v>
+        <v>0.02065088817059672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03018079279073038</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03018079279073036</v>
+        <v>2.221892722139138e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8490960360463481</v>
+        <v>0.955744658805973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8490960360463481</v>
+        <v>0.955744658805973</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5353,25 +3703,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>0.006187986173750233</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1948537068095217</v>
+        <v>0.05194344260974344</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220100901048439e-14</v>
+        <v>2.219253066339513e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8051462931903896</v>
+        <v>0.9418685712164399</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8051462931903896</v>
+        <v>0.9418685712164399</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -5386,25 +3736,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.03791422072225155</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.218753633424626e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001051653460114235</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.218753633424626e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.218753633424626e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9610341258175676</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9610341258175676</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -5419,25 +3769,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1782692908930862</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1568312623201189</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1568363440659053</v>
+        <v>0.1569570175799751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1568312623201193</v>
+        <v>0.156957017579975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1568312623201193</v>
+        <v>0.156957017579975</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1944005780806509</v>
+        <v>0.2152149121001249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1944005780806509</v>
+        <v>0.2152149121001249</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5452,25 +3802,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002078599047628906</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.219875559259416e-14</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.291549061747544e-12</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.219875559259416e-14</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.219875559259416e-14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9979214009490128</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9979214009490128</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5485,25 +3835,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.219877981382954e-14</v>
+        <v>0.006097894835449215</v>
       </c>
       <c r="C9" t="n">
-        <v>2.219877981382954e-14</v>
+        <v>1.722389688701546e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003618358671370934</v>
+        <v>0.008792130556135962</v>
       </c>
       <c r="E9" t="n">
-        <v>2.219877981382954e-14</v>
+        <v>2.220479416548211e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219877981382954e-14</v>
+        <v>2.220479416548211e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9963816413285403</v>
+        <v>0.9850927507114834</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9963816413285403</v>
+        <v>0.9850927507114834</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
